--- a/ActivityDiagram/Swimlane/業務フロー図.xlsx
+++ b/ActivityDiagram/Swimlane/業務フロー図.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD710D8-6738-45FC-A7B7-F0BC740F69BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2D913-5577-4F25-A8C7-9BF420B7E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="2" r:id="rId1"/>
@@ -470,14 +470,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -569,7 +566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="685800"/>
+          <a:off x="228600" y="457200"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -591,11 +588,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>端子</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -627,7 +629,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1828800"/>
+          <a:off x="228600" y="1371600"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -649,11 +651,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -685,7 +692,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="2971800"/>
+          <a:off x="228600" y="2286000"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -707,11 +714,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>判断</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -743,7 +755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4114800"/>
+          <a:off x="228600" y="3200400"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -765,11 +777,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サブプロセス</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -801,7 +818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5257800"/>
+          <a:off x="228600" y="4114800"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -823,69 +840,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="フローチャート: 組合せ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86634547-52B2-45D1-B604-81A1187F4EF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="6400800"/>
-          <a:ext cx="720000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手入力</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -917,7 +881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7543800"/>
+          <a:off x="228600" y="5943600"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -939,11 +903,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データベース</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -975,7 +944,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="8686800"/>
+          <a:off x="8001000" y="457200"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInternalStorage">
@@ -997,11 +966,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内部メモリ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1033,7 +1007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="9829800"/>
+          <a:off x="8001000" y="1371600"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInputOutput">
@@ -1055,11 +1029,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入出力</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1091,7 +1070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="10972800"/>
+          <a:off x="8001000" y="2286000"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -1113,11 +1092,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドキュメント</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1149,7 +1133,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="12115800"/>
+          <a:off x="8001000" y="3200400"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -1171,11 +1155,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>準備</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1207,7 +1196,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="13258800"/>
+          <a:off x="8001000" y="4114800"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
@@ -1229,11 +1218,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>遅延</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1265,7 +1259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="14401800"/>
+          <a:off x="8001000" y="5029200"/>
           <a:ext cx="1440000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualOperation">
@@ -1287,16 +1281,79 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手作業</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="720000" cy="720000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 組合せ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029DB478-2CA4-45CE-A80F-2F345F29E66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5029200"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1599,27 +1656,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED48D762-B8CC-40ED-883A-8E924FC95872}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:53" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AR1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BA1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1721,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BF240-EE0E-498B-A03D-DB4C45EF19A3}">
   <dimension ref="D3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1730,320 +1787,264 @@
   <sheetData>
     <row r="3" spans="4:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="4:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="1"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="1"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="3"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="3"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="3"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="3"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="4:11" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="6"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ActivityDiagram/Swimlane/業務フロー図.xlsx
+++ b/ActivityDiagram/Swimlane/業務フロー図.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2D913-5577-4F25-A8C7-9BF420B7E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0B1075-E7EE-4302-95A9-6F7650D8F13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="2" r:id="rId1"/>
     <sheet name="業務フロー図" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$N$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$AD$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">凡例!$A$1:$BT$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -331,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -389,45 +389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -462,6 +423,63 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -470,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,31 +507,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,27 +1695,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED48D762-B8CC-40ED-883A-8E924FC95872}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="2:53" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BA1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1776,277 +1815,421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BF240-EE0E-498B-A03D-DB4C45EF19A3}">
-  <dimension ref="D3:K33"/>
+  <dimension ref="D3:AA33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="11" width="24" customWidth="1"/>
+    <col min="1" max="3" width="3" style="8"/>
+    <col min="4" max="4" width="3" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="7" width="3" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19" style="8" customWidth="1"/>
+    <col min="9" max="10" width="3" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19" style="8" customWidth="1"/>
+    <col min="12" max="13" width="3" style="8" customWidth="1"/>
+    <col min="14" max="14" width="19" style="8" customWidth="1"/>
+    <col min="15" max="16" width="3" style="8" customWidth="1"/>
+    <col min="17" max="17" width="19" style="8" customWidth="1"/>
+    <col min="18" max="19" width="3" style="8" customWidth="1"/>
+    <col min="20" max="20" width="19" style="8" customWidth="1"/>
+    <col min="21" max="22" width="3" style="8" customWidth="1"/>
+    <col min="23" max="23" width="19" style="8" customWidth="1"/>
+    <col min="24" max="25" width="3" style="8" customWidth="1"/>
+    <col min="26" max="26" width="19" style="8" customWidth="1"/>
+    <col min="27" max="27" width="3" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="4:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D4" s="8" t="s">
+    <row r="3" spans="4:27" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="4:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="W4" s="15"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="17"/>
+    </row>
+    <row r="5" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="1"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="1"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="4:11" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="4:11" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="4:27" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D33" s="3"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="5"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>

--- a/ActivityDiagram/Swimlane/業務フロー図.xlsx
+++ b/ActivityDiagram/Swimlane/業務フロー図.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0B1075-E7EE-4302-95A9-6F7650D8F13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB810C-52B5-41B2-ABC0-46B81A7E1305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="業務フロー図" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$AD$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$AD$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">凡例!$A$1:$BT$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -488,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,8 +513,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,32 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +624,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -690,7 +687,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -753,7 +750,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -816,7 +813,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -879,7 +876,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -942,7 +939,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1005,7 +1002,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1068,7 +1065,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1131,7 +1128,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1194,7 +1191,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1257,7 +1254,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1320,7 +1317,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1378,7 +1375,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1393,6 +1390,558 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 端子 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D7CEAE-3AFB-4CA4-8463-97BE2AF90CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="1377950"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請業務を開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 手操作入力 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FA2A49-63DF-490B-A6F1-01E7B0D09344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="2330450"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請項目を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB863325-F0F1-4FCD-B693-4C95EE9CC6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="3282950"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請を提出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7F3B7B-151B-0FC1-91F4-1C56752FF1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634400" y="2097950"/>
+          <a:ext cx="0" cy="304500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF2291F-2C78-4489-873A-48D2B7DAF338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634400" y="3050450"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 磁気ディスク 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7BE138-9228-4E4E-9F7C-B7B9F7E1C6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="4235450"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請レコードを作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EA8CAD-379B-A28D-BD2E-A7D3F07C47BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7645650" y="-2008300"/>
+          <a:ext cx="592500" cy="12615000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 磁気ディスク 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748B9C28-A34C-491E-A84D-F7311C6EFFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="5187950"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請レコードの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>所有権を刈り取り</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0936A03-CE94-424D-A141-3474B6FAFA17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="4955450"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1815,409 +2364,1135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BF240-EE0E-498B-A03D-DB4C45EF19A3}">
-  <dimension ref="D3:AA33"/>
+  <dimension ref="D3:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="3" style="8"/>
-    <col min="4" max="4" width="3" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19" style="8" customWidth="1"/>
-    <col min="6" max="7" width="3" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" customWidth="1"/>
-    <col min="9" max="10" width="3" style="8" customWidth="1"/>
-    <col min="11" max="11" width="19" style="8" customWidth="1"/>
-    <col min="12" max="13" width="3" style="8" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="16" width="3" style="8" customWidth="1"/>
-    <col min="17" max="17" width="19" style="8" customWidth="1"/>
-    <col min="18" max="19" width="3" style="8" customWidth="1"/>
-    <col min="20" max="20" width="19" style="8" customWidth="1"/>
-    <col min="21" max="22" width="3" style="8" customWidth="1"/>
-    <col min="23" max="23" width="19" style="8" customWidth="1"/>
-    <col min="24" max="25" width="3" style="8" customWidth="1"/>
-    <col min="26" max="26" width="19" style="8" customWidth="1"/>
-    <col min="27" max="27" width="3" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="3" style="8"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="22" width="3" customWidth="1"/>
+    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="24" max="25" width="3" customWidth="1"/>
+    <col min="26" max="26" width="19" customWidth="1"/>
+    <col min="27" max="27" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:27" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="4:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="11" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="11" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="11" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="18" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="16" t="s">
+      <c r="W4" s="12"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="17"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="1"/>
-      <c r="G5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="Y5" s="21"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="Y5" s="10"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="1"/>
-      <c r="G6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="Y6" s="13"/>
+      <c r="G6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="Y6" s="8"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="1"/>
-      <c r="G7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="Y7" s="13"/>
+      <c r="G7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="Y7" s="8"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="1"/>
-      <c r="G8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="Y8" s="13"/>
+      <c r="G8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="Y8" s="8"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1"/>
-      <c r="G9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="Y9" s="13"/>
+      <c r="G9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="Y9" s="8"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="1"/>
-      <c r="G10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="G10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="Y10" s="8"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1"/>
-      <c r="G11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="Y11" s="13"/>
+      <c r="G11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="Y11" s="8"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1"/>
-      <c r="G12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="Y12" s="13"/>
+      <c r="G12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="Y12" s="8"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1"/>
-      <c r="G13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="Y13" s="13"/>
+      <c r="G13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="Y13" s="8"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="1"/>
-      <c r="G14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="Y14" s="13"/>
+      <c r="G14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="Y14" s="8"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1"/>
-      <c r="G15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="Y15" s="13"/>
+      <c r="G15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="Y15" s="8"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1"/>
-      <c r="G16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="G16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="Y16" s="8"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="Y17" s="8"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="1"/>
-      <c r="G18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="G18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="Y18" s="8"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="1"/>
-      <c r="G19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="G19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="Y19" s="8"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="1"/>
-      <c r="G20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="Y20" s="13"/>
+      <c r="G20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="Y20" s="8"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="1"/>
-      <c r="G21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="Y21" s="13"/>
+      <c r="G21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="Y21" s="8"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="1"/>
-      <c r="G22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="Y22" s="13"/>
+      <c r="G22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="Y22" s="8"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="1"/>
-      <c r="G23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="G23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="Y23" s="8"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="1"/>
-      <c r="G24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="Y24" s="8"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="1"/>
-      <c r="G25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="Y25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="Y25" s="8"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="1"/>
-      <c r="G26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="G26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="Y26" s="8"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="1"/>
-      <c r="G27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="Y27" s="13"/>
+      <c r="G27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="Y27" s="8"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="1"/>
-      <c r="G28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="Y28" s="13"/>
+      <c r="G28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="Y28" s="8"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="G29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="Y29" s="8"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="1"/>
-      <c r="G30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="Y30" s="13"/>
+      <c r="G30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="Y30" s="8"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="1"/>
-      <c r="G31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="Y31" s="13"/>
+      <c r="G31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="Y31" s="8"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="1"/>
-      <c r="G32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="G32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="Y32" s="8"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="4:27" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="5"/>
+    <row r="33" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="1"/>
+      <c r="G37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="1"/>
+      <c r="G38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="1"/>
+      <c r="G39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="1"/>
+      <c r="G40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="1"/>
+      <c r="G41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="1"/>
+      <c r="G42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="1"/>
+      <c r="G43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="1"/>
+      <c r="G44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="1"/>
+      <c r="G45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="1"/>
+      <c r="G46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="1"/>
+      <c r="G47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="1"/>
+      <c r="G48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="1"/>
+      <c r="G49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="1"/>
+      <c r="G50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="1"/>
+      <c r="G51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="1"/>
+      <c r="G52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="1"/>
+      <c r="G53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="1"/>
+      <c r="G54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="1"/>
+      <c r="G55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="1"/>
+      <c r="G56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="1"/>
+      <c r="G57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="1"/>
+      <c r="G58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="1"/>
+      <c r="G59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" s="1"/>
+      <c r="G60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" s="1"/>
+      <c r="G61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" s="1"/>
+      <c r="G62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" s="1"/>
+      <c r="G63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" s="1"/>
+      <c r="G64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1"/>
+      <c r="G65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="1"/>
+      <c r="G66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="1"/>
+      <c r="G67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" s="1"/>
+      <c r="G68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="1"/>
+      <c r="G69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" s="1"/>
+      <c r="G70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="1"/>
+      <c r="G71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="1"/>
+      <c r="G72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="1"/>
+      <c r="G73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="1"/>
+      <c r="G74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="1"/>
+      <c r="G75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="1"/>
+      <c r="G76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="1"/>
+      <c r="G77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="1"/>
+      <c r="G78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="1"/>
+      <c r="G79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="1"/>
+      <c r="G80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" s="1"/>
+      <c r="G81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="1"/>
+      <c r="G82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" s="1"/>
+      <c r="G83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="1"/>
+      <c r="G84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" s="1"/>
+      <c r="G85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" s="1"/>
+      <c r="G86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="AA86" s="2"/>
+    </row>
+    <row r="87" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="1"/>
+      <c r="G87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="1"/>
+      <c r="G88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" s="1"/>
+      <c r="G89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="AA89" s="2"/>
+    </row>
+    <row r="90" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="1"/>
+      <c r="G90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="AA90" s="2"/>
+    </row>
+    <row r="91" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" s="1"/>
+      <c r="G91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="1"/>
+      <c r="G92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="AA92" s="2"/>
+    </row>
+    <row r="93" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="1"/>
+      <c r="G93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="AA93" s="2"/>
+    </row>
+    <row r="94" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="1"/>
+      <c r="G94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="AA94" s="2"/>
+    </row>
+    <row r="95" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="1"/>
+      <c r="G95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="AA95" s="2"/>
+    </row>
+    <row r="96" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="1"/>
+      <c r="G96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="AA96" s="2"/>
+    </row>
+    <row r="97" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="1"/>
+      <c r="G97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="AA97" s="2"/>
+    </row>
+    <row r="98" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="1"/>
+      <c r="G98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="AA98" s="2"/>
+    </row>
+    <row r="99" spans="4:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2233,5 +3508,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ActivityDiagram/Swimlane/業務フロー図.xlsx
+++ b/ActivityDiagram/Swimlane/業務フロー図.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB810C-52B5-41B2-ABC0-46B81A7E1305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D12336-8805-46CA-A7F4-21036E8586B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="2" r:id="rId1"/>
     <sheet name="業務フロー図" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$AD$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$AD$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">凡例!$A$1:$BT$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2244,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED48D762-B8CC-40ED-883A-8E924FC95872}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -2364,11 +2364,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BF240-EE0E-498B-A03D-DB4C45EF19A3}">
-  <dimension ref="D3:AA99"/>
+  <dimension ref="D3:AA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3468,31 +3466,97 @@
       <c r="Y98" s="8"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="4:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D99" s="3"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="5"/>
+    <row r="99" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="1"/>
+      <c r="G99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="AA99" s="2"/>
+    </row>
+    <row r="100" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="1"/>
+      <c r="G100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="AA100" s="2"/>
+    </row>
+    <row r="101" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" s="1"/>
+      <c r="G101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="AA101" s="2"/>
+    </row>
+    <row r="102" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="1"/>
+      <c r="G102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="AA102" s="2"/>
+    </row>
+    <row r="103" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="1"/>
+      <c r="G103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="AA103" s="2"/>
+    </row>
+    <row r="104" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104" s="1"/>
+      <c r="G104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="AA104" s="2"/>
+    </row>
+    <row r="105" spans="4:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3507,7 +3571,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ActivityDiagram/Swimlane/業務フロー図.xlsx
+++ b/ActivityDiagram/Swimlane/業務フロー図.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D12336-8805-46CA-A7F4-21036E8586B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952F1004-10BA-4B3B-BA41-B29858D721BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{81BEB9FD-3923-40A3-95A3-8B0BF3B9D0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="2" r:id="rId1"/>
-    <sheet name="業務フロー図" sheetId="1" r:id="rId2"/>
+    <sheet name="業務フロー図（申請者）" sheetId="1" r:id="rId2"/>
+    <sheet name="業務フロー図（承認者）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$AD$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'業務フロー図（承認者）'!$A$1:$AP$123</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'業務フロー図（申請者）'!$A$1:$AP$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">凡例!$A$1:$BT$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>申請者</t>
     <rPh sb="0" eb="3">
@@ -73,10 +75,6 @@
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dataverse</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -266,6 +264,11 @@
     <rPh sb="1" eb="2">
       <t>ホカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power Automate
+ / Dataverse</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,6 +1760,14 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>申請レコードを作成</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（申請者が所有）</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1881,6 +1895,7 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>所有権を刈り取り</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1940,6 +1955,3077 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 磁気ディスク 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC066CF-AE92-4A47-B106-1BE0D7EC36D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="6140450"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認経路</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）を取得</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 磁気ディスク 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE21727-3E09-4823-9E6F-830BD3826398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="7092950"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請者・承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請レコードを共有</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>195128</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 線 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FAAFE9-434E-8C4D-04FB-138949CD29D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16450128" y="6341836"/>
+          <a:ext cx="2160000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>読み取り・追加先特権を付与して共有することで、結果を閲覧可能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>195128</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>210186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB871A11-3F7F-4DB8-B82E-D8145A7B05B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16450128" y="4443186"/>
+          <a:ext cx="2160000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>提出した申請を書換えできないように、所有者を管理者に変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BD6987-41E3-4913-AD9A-43EA7B0FE8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="5907950"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DE6089-CA3D-4F78-8ACC-764A7DF11214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="6860450"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>207828</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="吹き出し: 線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FF1FDA-C99E-4E80-9A70-1636787EF1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16462828" y="8246836"/>
+          <a:ext cx="2160000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>読み書き特権を付与して共有することで、承認者が承認状況を更新できるようにする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CA8F82-2B2D-41F6-8E44-38FBFBB17509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14973308" y="7817346"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="フローチャート: 磁気ディスク 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B142D98-88EE-43DA-857A-CF02458714A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="9950450"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用の空の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>承認結果レコードを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に共有</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="フローチャート: 判断 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C91509B-1283-4628-937A-B76F6C47954A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="8997950"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>指定されているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A5EB96-F171-47EB-9A44-9CFBA16CD393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="9717950"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1C6E40-4C55-409B-BCA9-01BE84D68943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="10670450"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 磁気ディスク 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4292DBB5-1ECE-4733-82CC-04D959FA53F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="11855450"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用の空の</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>承認結果レコードを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="フローチャート: 判断 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10189D42-94E3-49C5-964B-C71196AD52D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="10902950"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>指定されているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5B0250-4AD0-404D-90EE-4BC68A04C32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="11622950"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADE7FCC-E2B1-2C71-5E3E-FE36012E03DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14969400" y="9357950"/>
+          <a:ext cx="720000" cy="1545000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17639"/>
+            <a:gd name="adj2" fmla="val 91242"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1377950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="350096" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44D06CC-9409-7706-20C3-FE1ED908695E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15627350" y="9150350"/>
+          <a:ext cx="350096" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>679450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE13732-A953-48CE-B174-CA8007DE28F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14655800" y="9677400"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F712F0-B3D6-4582-B1CA-6D7AE4320A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14969400" y="12575450"/>
+          <a:ext cx="6350" cy="240800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1446350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート: 判断 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4766935C-5321-48F5-A501-27F0DF8E127E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14255750" y="12816250"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>指定されているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="コネクタ: カギ線 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9A993E-0322-40A7-A77C-7710E7C59787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14975750" y="11262950"/>
+          <a:ext cx="713650" cy="1553300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16907"/>
+            <a:gd name="adj2" fmla="val 90614"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1446350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="フローチャート: 磁気ディスク 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C20342-043A-430C-B403-8B388526A54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14255750" y="13768750"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>用の空の</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認結果レコードを</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA661811-8B0A-485F-9E54-4C2CC29B81B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14975750" y="13536250"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>724885</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE01A36-7031-436C-A4F1-8B9FD144FD1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14978193" y="14492169"/>
+          <a:ext cx="1465" cy="225177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>724885</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>367812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86782899-5BD6-4EBA-BF6B-783E19D2C4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14978193" y="13180158"/>
+          <a:ext cx="721465" cy="1537188"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15437"/>
+            <a:gd name="adj2" fmla="val 91246"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="フローチャート: 磁気ディスク 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A05F91-80C9-42D8-808F-8DBE73EEB027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14253308" y="15669846"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>用の空の</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認結果レコードを</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4885</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1444885</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="フローチャート: 判断 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FF5B51-1F84-4FDE-BBFA-962F7C6BD8DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14258193" y="14717346"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>指定されているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>724885</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4807F09-7550-4D35-82FF-1567D3D816E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14973308" y="15437346"/>
+          <a:ext cx="4885" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31B9138-E788-4F61-B2B2-E72582196685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14973308" y="16389846"/>
+          <a:ext cx="6350" cy="240800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="フローチャート: 判断 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7EEF8F-8F37-455B-9693-11ACEC09BB1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14259658" y="16630646"/>
+          <a:ext cx="1440000" cy="719023"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>指定されているか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1444885</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="コネクタ: カギ線 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA70478C-773C-4D50-911C-DE540F74F575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14979658" y="15077346"/>
+          <a:ext cx="718535" cy="1553300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15500"/>
+            <a:gd name="adj2" fmla="val 91148"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1465</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1441465</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>717553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フローチャート: 磁気ディスク 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705DA528-66C7-4F75-A31A-9664C6F0A224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14254773" y="16620876"/>
+          <a:ext cx="1440000" cy="719023"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>用の空の</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認結果レコードを</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>721465</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>726350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06145C71-818D-4382-B907-BB0C9E9D4C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14974773" y="16397169"/>
+          <a:ext cx="4885" cy="223707"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>717553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>721465</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4569351F-5CA1-4C91-8C4F-EE34CD2FCDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14973308" y="17339899"/>
+          <a:ext cx="1465" cy="234947"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>367812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="コネクタ: カギ線 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2E7CF3-4AC7-41B7-95B3-150F68B3F5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14973308" y="16037658"/>
+          <a:ext cx="726350" cy="1537188"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15332"/>
+            <a:gd name="adj2" fmla="val 91881"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>103552</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>356576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>222481</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>118362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="吹き出し: 線 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481D6982-925E-4A54-8722-76C26BC67826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16477481" y="9346362"/>
+          <a:ext cx="2160000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合とは異なり、読み書きを付与して共有するのは承認順が進んでから実施（ここでは空のレコードを作成するだけ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="フローチャート: 処理 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98D3D33-8491-45CA-9601-C78B39136812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14253308" y="17574846"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に通知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763048C9-B32F-4391-83F9-A3012F6DF4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3532143" y="2089786"/>
+          <a:ext cx="0" cy="304500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79076A19-44AA-4CDA-8CE8-ED6706FF992B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3532143" y="3042286"/>
+          <a:ext cx="0" cy="232500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>720000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55477CF9-3B8C-4BA2-95D2-DA0F855A1D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="56" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8590893" y="-1063964"/>
+          <a:ext cx="592500" cy="10710000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>442685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>195128</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="吹き出し: 線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9F5086-5436-4FFD-B6D4-4EAFD6AE57C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16450128" y="2764971"/>
+          <a:ext cx="2160000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>提出した承認結果を書換えできないように、共有を解除し、管理者のみアクセスできるように変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="フローチャート: 端子 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25839A33-3387-49EE-B3DF-F9F80161327A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2812143" y="1369786"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通知を受信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フローチャート: 手操作入力 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256AD57C-434E-49E9-B67E-12AE7F74B75D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2812143" y="2322286"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認結果を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート: 処理 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BAF0A1-E73D-4C98-94B8-D09739701B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2812143" y="3274786"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認結果を提出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1440000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>720000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="フローチャート: 磁気ディスク 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7803212-639F-4C1E-B972-ECD54FB3AA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14242143" y="4227286"/>
+          <a:ext cx="1440000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認結果レコードの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共有を解除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2250,108 +5336,108 @@
   <sheetData>
     <row r="1" spans="2:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="6" t="s">
-        <v>15</v>
+      <c r="AR3" t="s">
+        <v>22</v>
       </c>
-      <c r="AR1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J3" t="s">
+    </row>
+    <row r="7" spans="2:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S7" t="s">
         <v>18</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J7" t="s">
+      <c r="BA7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S11" t="s">
         <v>19</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR11" t="s">
         <v>24</v>
       </c>
-      <c r="BA7" t="s">
-        <v>14</v>
+      <c r="BA11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" t="s">
+    <row r="15" spans="2:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AR15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="10:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
         <v>20</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR19" t="s">
         <v>25</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BA19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="10:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="10:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="2:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="10:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="10:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="10:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="J27" t="s">
+      <c r="S27" t="s">
         <v>33</v>
-      </c>
-      <c r="S27" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2364,9 +5450,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BF240-EE0E-498B-A03D-DB4C45EF19A3}">
-  <dimension ref="D3:AA105"/>
+  <dimension ref="D3:AA63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2426,8 +5512,8 @@
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="14" t="s">
-        <v>7</v>
+      <c r="Y4" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="Z4" s="14"/>
       <c r="AA4" s="15"/>
@@ -3070,493 +6156,31 @@
       <c r="Y62" s="8"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D63" s="1"/>
-      <c r="G63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="AA63" s="2"/>
-    </row>
-    <row r="64" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D64" s="1"/>
-      <c r="G64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="AA64" s="2"/>
-    </row>
-    <row r="65" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D65" s="1"/>
-      <c r="G65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="AA65" s="2"/>
-    </row>
-    <row r="66" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="1"/>
-      <c r="G66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="AA66" s="2"/>
-    </row>
-    <row r="67" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D67" s="1"/>
-      <c r="G67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="AA67" s="2"/>
-    </row>
-    <row r="68" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D68" s="1"/>
-      <c r="G68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="AA68" s="2"/>
-    </row>
-    <row r="69" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D69" s="1"/>
-      <c r="G69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="AA69" s="2"/>
-    </row>
-    <row r="70" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D70" s="1"/>
-      <c r="G70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="AA70" s="2"/>
-    </row>
-    <row r="71" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D71" s="1"/>
-      <c r="G71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="AA71" s="2"/>
-    </row>
-    <row r="72" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D72" s="1"/>
-      <c r="G72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="AA72" s="2"/>
-    </row>
-    <row r="73" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D73" s="1"/>
-      <c r="G73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="AA73" s="2"/>
-    </row>
-    <row r="74" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D74" s="1"/>
-      <c r="G74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="AA74" s="2"/>
-    </row>
-    <row r="75" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D75" s="1"/>
-      <c r="G75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="AA75" s="2"/>
-    </row>
-    <row r="76" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" s="1"/>
-      <c r="G76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="AA76" s="2"/>
-    </row>
-    <row r="77" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D77" s="1"/>
-      <c r="G77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="AA77" s="2"/>
-    </row>
-    <row r="78" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D78" s="1"/>
-      <c r="G78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="AA78" s="2"/>
-    </row>
-    <row r="79" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D79" s="1"/>
-      <c r="G79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="AA79" s="2"/>
-    </row>
-    <row r="80" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D80" s="1"/>
-      <c r="G80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="AA80" s="2"/>
-    </row>
-    <row r="81" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D81" s="1"/>
-      <c r="G81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="AA81" s="2"/>
-    </row>
-    <row r="82" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="1"/>
-      <c r="G82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="AA82" s="2"/>
-    </row>
-    <row r="83" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D83" s="1"/>
-      <c r="G83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="AA83" s="2"/>
-    </row>
-    <row r="84" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D84" s="1"/>
-      <c r="G84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="AA84" s="2"/>
-    </row>
-    <row r="85" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D85" s="1"/>
-      <c r="G85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="AA85" s="2"/>
-    </row>
-    <row r="86" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D86" s="1"/>
-      <c r="G86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="AA86" s="2"/>
-    </row>
-    <row r="87" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D87" s="1"/>
-      <c r="G87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D88" s="1"/>
-      <c r="G88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="AA88" s="2"/>
-    </row>
-    <row r="89" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D89" s="1"/>
-      <c r="G89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="AA89" s="2"/>
-    </row>
-    <row r="90" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D90" s="1"/>
-      <c r="G90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="AA90" s="2"/>
-    </row>
-    <row r="91" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D91" s="1"/>
-      <c r="G91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="Y91" s="8"/>
-      <c r="AA91" s="2"/>
-    </row>
-    <row r="92" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D92" s="1"/>
-      <c r="G92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="AA92" s="2"/>
-    </row>
-    <row r="93" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D93" s="1"/>
-      <c r="G93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="Y93" s="8"/>
-      <c r="AA93" s="2"/>
-    </row>
-    <row r="94" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D94" s="1"/>
-      <c r="G94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="Y94" s="8"/>
-      <c r="AA94" s="2"/>
-    </row>
-    <row r="95" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D95" s="1"/>
-      <c r="G95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="AA95" s="2"/>
-    </row>
-    <row r="96" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D96" s="1"/>
-      <c r="G96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="AA96" s="2"/>
-    </row>
-    <row r="97" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D97" s="1"/>
-      <c r="G97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="AA97" s="2"/>
-    </row>
-    <row r="98" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D98" s="1"/>
-      <c r="G98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="Y98" s="8"/>
-      <c r="AA98" s="2"/>
-    </row>
-    <row r="99" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D99" s="1"/>
-      <c r="G99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="Y99" s="8"/>
-      <c r="AA99" s="2"/>
-    </row>
-    <row r="100" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D100" s="1"/>
-      <c r="G100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="AA100" s="2"/>
-    </row>
-    <row r="101" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D101" s="1"/>
-      <c r="G101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="AA101" s="2"/>
-    </row>
-    <row r="102" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D102" s="1"/>
-      <c r="G102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="AA102" s="2"/>
-    </row>
-    <row r="103" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D103" s="1"/>
-      <c r="G103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="AA103" s="2"/>
-    </row>
-    <row r="104" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D104" s="1"/>
-      <c r="G104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="V104" s="8"/>
-      <c r="Y104" s="8"/>
-      <c r="AA104" s="2"/>
-    </row>
-    <row r="105" spans="4:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D105" s="3"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="9"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="5"/>
+    <row r="63" spans="4:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3571,7 +6195,1397 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871A666-219B-476A-BCE0-A9415C807A53}">
+  <dimension ref="D3:AA121"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="22" width="3" customWidth="1"/>
+    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="24" max="25" width="3" customWidth="1"/>
+    <col min="26" max="26" width="19" customWidth="1"/>
+    <col min="27" max="27" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:27" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="4:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="15"/>
+    </row>
+    <row r="5" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="1"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="1"/>
+      <c r="G6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="1"/>
+      <c r="G7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="1"/>
+      <c r="G8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="1"/>
+      <c r="G9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="1"/>
+      <c r="G10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="1"/>
+      <c r="G11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1"/>
+      <c r="G12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="1"/>
+      <c r="G14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="1"/>
+      <c r="G15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="1"/>
+      <c r="G16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1"/>
+      <c r="G17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="1"/>
+      <c r="G18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="1"/>
+      <c r="G19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="1"/>
+      <c r="G20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="1"/>
+      <c r="G21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="1"/>
+      <c r="G22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="1"/>
+      <c r="G23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="1"/>
+      <c r="G24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="1"/>
+      <c r="G25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="1"/>
+      <c r="G26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="1"/>
+      <c r="G27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="1"/>
+      <c r="G28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="1"/>
+      <c r="G37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="1"/>
+      <c r="G38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="1"/>
+      <c r="G39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="1"/>
+      <c r="G40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="1"/>
+      <c r="G41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="1"/>
+      <c r="G42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="1"/>
+      <c r="G43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="1"/>
+      <c r="G44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="1"/>
+      <c r="G45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="1"/>
+      <c r="G46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="1"/>
+      <c r="G47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="1"/>
+      <c r="G48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="1"/>
+      <c r="G49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="1"/>
+      <c r="G50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="1"/>
+      <c r="G51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="1"/>
+      <c r="G52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="1"/>
+      <c r="G53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="1"/>
+      <c r="G54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="1"/>
+      <c r="G55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="1"/>
+      <c r="G56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="1"/>
+      <c r="G57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="1"/>
+      <c r="G58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="1"/>
+      <c r="G59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" s="1"/>
+      <c r="G60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" s="1"/>
+      <c r="G61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" s="1"/>
+      <c r="G62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" s="1"/>
+      <c r="G63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" s="1"/>
+      <c r="G64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1"/>
+      <c r="G65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="1"/>
+      <c r="G66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="1"/>
+      <c r="G67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" s="1"/>
+      <c r="G68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="1"/>
+      <c r="G69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" s="1"/>
+      <c r="G70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="1"/>
+      <c r="G71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="1"/>
+      <c r="G72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="1"/>
+      <c r="G73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="1"/>
+      <c r="G74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="1"/>
+      <c r="G75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="1"/>
+      <c r="G76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="1"/>
+      <c r="G77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="1"/>
+      <c r="G78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="1"/>
+      <c r="G79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="1"/>
+      <c r="G80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" s="1"/>
+      <c r="G81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="1"/>
+      <c r="G82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" s="1"/>
+      <c r="G83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="1"/>
+      <c r="G84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" s="1"/>
+      <c r="G85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" s="1"/>
+      <c r="G86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="AA86" s="2"/>
+    </row>
+    <row r="87" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="1"/>
+      <c r="G87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="1"/>
+      <c r="G88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" s="1"/>
+      <c r="G89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="AA89" s="2"/>
+    </row>
+    <row r="90" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="1"/>
+      <c r="G90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="AA90" s="2"/>
+    </row>
+    <row r="91" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" s="1"/>
+      <c r="G91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="1"/>
+      <c r="G92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="AA92" s="2"/>
+    </row>
+    <row r="93" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="1"/>
+      <c r="G93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="AA93" s="2"/>
+    </row>
+    <row r="94" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="1"/>
+      <c r="G94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="AA94" s="2"/>
+    </row>
+    <row r="95" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="1"/>
+      <c r="G95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="AA95" s="2"/>
+    </row>
+    <row r="96" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="1"/>
+      <c r="G96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="AA96" s="2"/>
+    </row>
+    <row r="97" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="1"/>
+      <c r="G97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="AA97" s="2"/>
+    </row>
+    <row r="98" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="1"/>
+      <c r="G98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="AA98" s="2"/>
+    </row>
+    <row r="99" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="1"/>
+      <c r="G99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="AA99" s="2"/>
+    </row>
+    <row r="100" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="1"/>
+      <c r="G100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="AA100" s="2"/>
+    </row>
+    <row r="101" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" s="1"/>
+      <c r="G101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="AA101" s="2"/>
+    </row>
+    <row r="102" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="1"/>
+      <c r="G102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="AA102" s="2"/>
+    </row>
+    <row r="103" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="1"/>
+      <c r="G103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="AA103" s="2"/>
+    </row>
+    <row r="104" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104" s="1"/>
+      <c r="G104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="AA104" s="2"/>
+    </row>
+    <row r="105" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" s="1"/>
+      <c r="G105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="AA105" s="2"/>
+    </row>
+    <row r="106" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D106" s="1"/>
+      <c r="G106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="Y106" s="8"/>
+      <c r="AA106" s="2"/>
+    </row>
+    <row r="107" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" s="1"/>
+      <c r="G107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" s="1"/>
+      <c r="G108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="AA108" s="2"/>
+    </row>
+    <row r="109" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D109" s="1"/>
+      <c r="G109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="AA109" s="2"/>
+    </row>
+    <row r="110" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D110" s="1"/>
+      <c r="G110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="AA110" s="2"/>
+    </row>
+    <row r="111" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" s="1"/>
+      <c r="G111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="AA111" s="2"/>
+    </row>
+    <row r="112" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D112" s="1"/>
+      <c r="G112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="AA112" s="2"/>
+    </row>
+    <row r="113" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113" s="1"/>
+      <c r="G113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="AA113" s="2"/>
+    </row>
+    <row r="114" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" s="1"/>
+      <c r="G114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="AA114" s="2"/>
+    </row>
+    <row r="115" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="1"/>
+      <c r="G115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="AA115" s="2"/>
+    </row>
+    <row r="116" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" s="1"/>
+      <c r="G116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="AA116" s="2"/>
+    </row>
+    <row r="117" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" s="1"/>
+      <c r="G117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="AA117" s="2"/>
+    </row>
+    <row r="118" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" s="1"/>
+      <c r="G118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="AA118" s="2"/>
+    </row>
+    <row r="119" spans="4:27" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" s="1"/>
+      <c r="G119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="Y119" s="8"/>
+      <c r="AA119" s="2"/>
+    </row>
+    <row r="120" spans="4:27" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="1"/>
+      <c r="G120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="V120" s="8"/>
+      <c r="Y120" s="8"/>
+      <c r="AA120" s="2"/>
+    </row>
+    <row r="121" spans="4:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D121" s="3"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>